--- a/Dossiers personnels/Adrien/RepartitionDuTravail.xlsx
+++ b/Dossiers personnels/Adrien/RepartitionDuTravail.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRepos\PRO\BlaajjPaint\Dossiers personnels\Adrien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CA4129-CD3B-4085-93DF-23DB54163849}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDF0B9E-AF12-4844-B159-CED2D7C2D120}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="0" windowWidth="27840" windowHeight="12810" xr2:uid="{B17E6258-D8B2-42DC-B5D5-71953BBB4CE2}"/>
+    <workbookView xWindow="1920" yWindow="0" windowWidth="27840" windowHeight="12810" xr2:uid="{B17E6258-D8B2-42DC-B5D5-71953BBB4CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Planification</t>
   </si>
@@ -63,10 +63,22 @@
     <t>total</t>
   </si>
   <si>
-    <t>Réalisé</t>
-  </si>
-  <si>
     <t>Adrien</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Antoine</t>
+  </si>
+  <si>
+    <t>Loyse</t>
+  </si>
+  <si>
+    <t>Jérémie</t>
   </si>
 </sst>
 </file>
@@ -418,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F8C461-AEC7-42D9-8836-0E7559C825FE}">
-  <dimension ref="B3:E15"/>
+  <dimension ref="B3:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,18 +442,30 @@
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -449,12 +473,32 @@
         <f>21.5+47</f>
         <v>68.5</v>
       </c>
+      <c r="D4">
+        <f>SUM(E4:J4)</f>
+        <v>77.75</v>
+      </c>
       <c r="E4">
         <f>3+1+1+5+1+1.5+2+2+1</f>
         <v>17.5</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f>11+1.5+1.5</f>
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <f>10.5+3.5+1.5+1.5+1.5</f>
+        <v>18.5</v>
+      </c>
+      <c r="H4">
+        <f>4.75+3+1.5</f>
+        <v>9.25</v>
+      </c>
+      <c r="I4">
+        <f>12.5+3+3</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -462,12 +506,32 @@
         <f>(8*3)</f>
         <v>24</v>
       </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D13" si="0">SUM(E5:J5)</f>
+        <v>49</v>
+      </c>
       <c r="E5">
         <f>5+2</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f>4+4</f>
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <f>6+3</f>
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <f>9+1.5+1.5</f>
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <f>10+3</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -475,12 +539,31 @@
         <f>(3*8)+(6*3)</f>
         <v>42</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>53.5</v>
+      </c>
       <c r="E6">
         <f>5+2.5+4</f>
         <v>11.5</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>8+4</f>
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <f>12+8</f>
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <f>6+4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -488,8 +571,29 @@
         <f>(3*4)+(6*3)</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>6+5+5.5+1.5</f>
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <f>4+2+3</f>
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
@@ -497,8 +601,28 @@
         <f>(3*4)+(6*3)+(12.5)</f>
         <v>42.5</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>23.5</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>18.5+5</f>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -506,12 +630,29 @@
         <f>(47)+31</f>
         <v>78</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
       <c r="E9">
         <f>5+ 13+10</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>4</v>
       </c>
@@ -519,23 +660,61 @@
         <f>34+37+7</f>
         <v>78</v>
       </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
       <c r="E10">
         <f>4+2+2</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f>0.5+36.5+1</f>
+        <v>38</v>
+      </c>
+      <c r="G10">
+        <f>5+1+12+10+12+3+7</f>
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <f>9+13+10</f>
+        <v>32</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11">
         <v>41.5</v>
       </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>61.5</v>
+      </c>
       <c r="E11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>5.5</v>
+      </c>
+      <c r="G11">
+        <f>3+6</f>
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <f>16</f>
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <f>21</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -543,11 +722,29 @@
         <f>13+36+5.5</f>
         <v>54.5</v>
       </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>14.25</v>
+      </c>
       <c r="E12">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f>0.5+4.5</f>
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>0.25</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -555,8 +752,27 @@
         <f>36+33+9</f>
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>11</v>
       </c>
@@ -567,6 +783,26 @@
       <c r="E15">
         <f>SUM(E4:E13)</f>
         <v>89</v>
+      </c>
+      <c r="F15">
+        <f>SUM(F4:F13)</f>
+        <v>96.5</v>
+      </c>
+      <c r="G15">
+        <f>SUM(G4:G13)</f>
+        <v>112.5</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:I15" si="1">SUM(H4:H13)</f>
+        <v>89.5</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="J15">
+        <f>SUM(J4:J13)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Dossiers personnels/Adrien/RepartitionDuTravail.xlsx
+++ b/Dossiers personnels/Adrien/RepartitionDuTravail.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRepos\PRO\BlaajjPaint\Dossiers personnels\Adrien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDF0B9E-AF12-4844-B159-CED2D7C2D120}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E5AF3A-7E47-4C0C-8E30-924F2EDCC47F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="0" windowWidth="27840" windowHeight="12810" xr2:uid="{B17E6258-D8B2-42DC-B5D5-71953BBB4CE2}"/>
+    <workbookView xWindow="3840" yWindow="0" windowWidth="27840" windowHeight="12810" activeTab="1" xr2:uid="{B17E6258-D8B2-42DC-B5D5-71953BBB4CE2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017" iterateDelta="1E-4"/>
+  <calcPr calcId="179017"/>
+  <pivotCaches>
+    <pivotCache cacheId="20" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Planification</t>
   </si>
@@ -48,9 +53,6 @@
     <t>Autres</t>
   </si>
   <si>
-    <t>Prévu</t>
-  </si>
-  <si>
     <t>Formation</t>
   </si>
   <si>
@@ -69,9 +71,6 @@
     <t>James</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Antoine</t>
   </si>
   <si>
@@ -79,6 +78,33 @@
   </si>
   <si>
     <t>Jérémie</t>
+  </si>
+  <si>
+    <t>Benoît</t>
+  </si>
+  <si>
+    <t>Tâches</t>
+  </si>
+  <si>
+    <t>Étiquettes de lignes</t>
+  </si>
+  <si>
+    <t>Total général</t>
+  </si>
+  <si>
+    <t>Heures prévues</t>
+  </si>
+  <si>
+    <t>Différence d'heures</t>
+  </si>
+  <si>
+    <t>Somme de Heures prévues</t>
+  </si>
+  <si>
+    <t>Heures effectuées</t>
+  </si>
+  <si>
+    <t>Somme de Heures effectuées</t>
   </si>
 </sst>
 </file>
@@ -102,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -110,17 +136,528 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -131,6 +668,3546 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[RepartitionDuTravail.xlsx]Feuil2!Tableau croisé dynamique1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="3200" b="1"/>
+              <a:t>Planification Initiale</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31549903117024219"/>
+          <c:y val="2.8216883815583262E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil2!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Formation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GUI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Documentation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Modélisation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sauvegarde</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Autres</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Planification</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Historique</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Présentation</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Outils</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil2!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-CBAA-4958-B703-4FEBCF66B30A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="416629136"/>
+        <c:axId val="416632088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="416629136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2000" b="1"/>
+                  <a:t>Catégories</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4468371957440607E-2"/>
+              <c:y val="0.34491634811717981"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416632088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="416632088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2000" b="1"/>
+                  <a:t>Temps</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2000" b="1" baseline="0"/>
+                  <a:t> [h]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="2000" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44531576560818414"/>
+              <c:y val="0.91658998529948932"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416629136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[RepartitionDuTravail.xlsx]Feuil3!Tableau croisé dynamique2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Somme de Heures prévues</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil3!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Formation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GUI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Documentation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Modélisation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sauvegarde</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Autres</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Planification</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Historique</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Présentation</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Outils</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil3!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BAA8-43DA-8DD1-5F529380A1F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Somme de Heures effectuées</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil3!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Formation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GUI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Documentation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Modélisation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sauvegarde</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Autres</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Planification</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Historique</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Présentation</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Outils</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil3!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F716-49AA-9FB0-9FBF2D4F1239}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="550928392"/>
+        <c:axId val="550928720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="550928392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550928720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="550928720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550928392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>725724</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>140803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>687457</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EB1904E-9EDF-4DB2-98E5-829F7C50F699}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02EB731D-60B8-43E0-8C6E-BCD1D881F099}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Adrien Allemand" refreshedDate="43240.74529953704" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10" xr:uid="{CB24DB95-900B-4C42-AC12-FD258AF67E6E}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tableau1"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="Tâches" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Planification"/>
+        <s v="Formation"/>
+        <s v="Modélisation"/>
+        <s v="GUI"/>
+        <s v="Sauvegarde"/>
+        <s v="Historique"/>
+        <s v="Outils"/>
+        <s v="Documentation"/>
+        <s v="Autres"/>
+        <s v="Présentation"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Heures prévues" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="24" maxValue="78"/>
+    </cacheField>
+    <cacheField name="Heures effectuées" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="187"/>
+    </cacheField>
+    <cacheField name="Différence d'heures" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-78" maxValue="109"/>
+    </cacheField>
+    <cacheField name="Adrien" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="28"/>
+    </cacheField>
+    <cacheField name="James" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="38"/>
+    </cacheField>
+    <cacheField name="Antoine" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="50"/>
+    </cacheField>
+    <cacheField name="Loyse" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="32"/>
+    </cacheField>
+    <cacheField name="Jérémie" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="47.5"/>
+    </cacheField>
+    <cacheField name="Benoît" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="59"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+  <r>
+    <x v="0"/>
+    <n v="68.5"/>
+    <n v="95.75"/>
+    <n v="27.25"/>
+    <n v="17.5"/>
+    <n v="14"/>
+    <n v="18.5"/>
+    <n v="9.25"/>
+    <n v="18.5"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="60"/>
+    <n v="36"/>
+    <n v="7"/>
+    <n v="8"/>
+    <n v="9"/>
+    <n v="12"/>
+    <n v="13"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="42"/>
+    <n v="101.5"/>
+    <n v="59.5"/>
+    <n v="11.5"/>
+    <n v="0"/>
+    <n v="12"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="30"/>
+    <n v="35"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="18"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="42.5"/>
+    <n v="49"/>
+    <n v="6.5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="47.5"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="78"/>
+    <n v="39"/>
+    <n v="-39"/>
+    <n v="28"/>
+    <n v="8"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="78"/>
+    <n v="187"/>
+    <n v="109"/>
+    <n v="8"/>
+    <n v="38"/>
+    <n v="50"/>
+    <n v="32"/>
+    <n v="0"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="41.5"/>
+    <n v="66"/>
+    <n v="24.5"/>
+    <n v="10"/>
+    <n v="5.5"/>
+    <n v="9"/>
+    <n v="16"/>
+    <n v="21"/>
+    <n v="4.5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="54.5"/>
+    <n v="14.25"/>
+    <n v="-40.25"/>
+    <n v="7"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="0.25"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="78"/>
+    <n v="0"/>
+    <n v="-78"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{638EC781-7882-4AD5-BA75-9237E87BB1A9}" name="Tableau croisé dynamique1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A1:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="11">
+        <item x="8"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Somme de Heures prévues" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6EC15F7-7095-4071-8C6E-76747445245C}" name="Tableau croisé dynamique2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A1:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="11">
+        <item x="8"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Somme de Heures prévues" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Somme de Heures effectuées" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{45A859BF-1BBF-45C2-9DFD-E97335EBD23F}" name="Tableau1" displayName="Tableau1" ref="B3:K13" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="B3:K13" xr:uid="{43DAF26E-C031-4F95-A3E4-8B67480ABEBC}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{C8EECC32-53DD-470A-B46D-C79BD5FEF94A}" name="Tâches" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{AC11890D-E2DD-4DB6-9EF5-0AC9F73E655A}" name="Heures prévues" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{BD1B57E3-7E05-4A76-941D-E9F5E5B8414A}" name="Heures effectuées" dataDxfId="7">
+      <calculatedColumnFormula>SUM(F4:K4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{D18A637A-9884-4419-91ED-1EE513EEC095}" name="Différence d'heures" dataDxfId="6">
+      <calculatedColumnFormula>Tableau1[[#This Row],[Heures effectuées]]-Tableau1[[#This Row],[Heures prévues]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{C39213A5-5A33-4D0D-8258-4038705E0BE0}" name="Adrien" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{9205A241-1110-4E96-8682-7D848B101F42}" name="James" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{DA7DE98C-6BD0-4CAA-8D47-2BAD25DE6DD6}" name="Antoine" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{7C3CEE41-FBE7-4091-8B38-727F1CE31C18}" name="Loyse" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{6A2C71AE-9FDE-4B9F-BBC2-A1885E023C2C}" name="Jérémie" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{9EE26F03-26FB-42A6-A1E8-7F709A432777}" name="Benoît" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,371 +4506,742 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D49023-42AF-4A9F-A523-AC9AFA0A1A4D}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="20">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="20">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="20">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="20">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="20">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="20">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="20">
+        <v>537</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616AD180-22A6-4160-9A02-E5AD63CE95FE}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="20">
+        <v>24</v>
+      </c>
+      <c r="C2" s="20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="20">
+        <v>30</v>
+      </c>
+      <c r="C3" s="20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="20">
+        <v>41.5</v>
+      </c>
+      <c r="C4" s="20">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="20">
+        <v>42</v>
+      </c>
+      <c r="C5" s="20">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="20">
+        <v>42.5</v>
+      </c>
+      <c r="C6" s="20">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20">
+        <v>54.5</v>
+      </c>
+      <c r="C7" s="20">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="20">
+        <v>68.5</v>
+      </c>
+      <c r="C8" s="20">
+        <v>95.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="20">
+        <v>78</v>
+      </c>
+      <c r="C9" s="20">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20">
+        <v>78</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="20">
+        <v>78</v>
+      </c>
+      <c r="C11" s="20">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="20">
+        <v>537</v>
+      </c>
+      <c r="C12" s="20">
+        <v>647.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F8C461-AEC7-42D9-8836-0E7559C825FE}">
-  <dimension ref="B3:J15"/>
+  <dimension ref="B2:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="J3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <f>21.5+47</f>
         <v>68.5</v>
       </c>
-      <c r="D4">
-        <f>SUM(E4:J4)</f>
-        <v>77.75</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="11">
+        <f>SUM(F4:K4)</f>
+        <v>95.75</v>
+      </c>
+      <c r="E4" s="8">
+        <f>Tableau1[[#This Row],[Heures effectuées]]-Tableau1[[#This Row],[Heures prévues]]</f>
+        <v>27.25</v>
+      </c>
+      <c r="F4" s="1">
         <f>3+1+1+5+1+1.5+2+2+1</f>
         <v>17.5</v>
       </c>
-      <c r="F4">
+      <c r="G4" s="1">
         <f>11+1.5+1.5</f>
         <v>14</v>
       </c>
-      <c r="G4">
+      <c r="H4" s="1">
         <f>10.5+3.5+1.5+1.5+1.5</f>
         <v>18.5</v>
       </c>
-      <c r="H4">
+      <c r="I4" s="1">
         <f>4.75+3+1.5</f>
         <v>9.25</v>
       </c>
-      <c r="I4">
+      <c r="J4" s="1">
         <f>12.5+3+3</f>
         <v>18.5</v>
       </c>
+      <c r="K4" s="2">
+        <f>15+1.5+1.5</f>
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9">
         <f>(8*3)</f>
         <v>24</v>
       </c>
-      <c r="D5">
-        <f t="shared" ref="D5:D13" si="0">SUM(E5:J5)</f>
-        <v>49</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="9">
+        <f t="shared" ref="D5:D13" si="0">SUM(F5:K5)</f>
+        <v>60</v>
+      </c>
+      <c r="E5" s="22">
+        <f>Tableau1[[#This Row],[Heures effectuées]]-Tableau1[[#This Row],[Heures prévues]]</f>
+        <v>36</v>
+      </c>
+      <c r="F5" s="3">
         <f>5+2</f>
         <v>7</v>
       </c>
-      <c r="F5">
+      <c r="G5" s="3">
         <f>4+4</f>
         <v>8</v>
       </c>
-      <c r="G5">
+      <c r="H5" s="3">
         <f>6+3</f>
         <v>9</v>
       </c>
-      <c r="H5">
+      <c r="I5" s="3">
         <f>9+1.5+1.5</f>
         <v>12</v>
       </c>
-      <c r="I5">
+      <c r="J5" s="3">
         <f>10+3</f>
         <v>13</v>
       </c>
+      <c r="K5" s="4">
+        <f>11</f>
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="9">
         <f>(3*8)+(6*3)</f>
         <v>42</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="9">
         <f t="shared" si="0"/>
-        <v>53.5</v>
-      </c>
-      <c r="E6">
+        <v>101.5</v>
+      </c>
+      <c r="E6" s="22">
+        <f>Tableau1[[#This Row],[Heures effectuées]]-Tableau1[[#This Row],[Heures prévues]]</f>
+        <v>59.5</v>
+      </c>
+      <c r="F6" s="3">
         <f>5+2.5+4</f>
         <v>11.5</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="H6" s="3">
         <f>8+4</f>
         <v>12</v>
       </c>
-      <c r="H6">
+      <c r="I6" s="3">
         <f>12+8</f>
         <v>20</v>
       </c>
-      <c r="I6">
+      <c r="J6" s="3">
         <f>6+4</f>
         <v>10</v>
       </c>
+      <c r="K6" s="4">
+        <f>6+5+37</f>
+        <v>48</v>
+      </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9">
         <f>(3*4)+(6*3)</f>
         <v>30</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="9">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="E7">
+        <v>35</v>
+      </c>
+      <c r="E7" s="22">
+        <f>Tableau1[[#This Row],[Heures effectuées]]-Tableau1[[#This Row],[Heures prévues]]</f>
+        <v>5</v>
+      </c>
+      <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="G7" s="3">
         <f>6+5+5.5+1.5</f>
         <v>18</v>
       </c>
-      <c r="G7">
+      <c r="H7" s="3">
         <f>4+2+3</f>
         <v>9</v>
       </c>
-      <c r="H7">
+      <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="J7" s="3">
         <v>0</v>
       </c>
+      <c r="K7" s="4">
+        <f>8</f>
+        <v>8</v>
+      </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="9">
         <f>(3*4)+(6*3)+(12.5)</f>
         <v>42.5</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
-        <v>23.5</v>
-      </c>
-      <c r="E8">
+        <v>49</v>
+      </c>
+      <c r="E8" s="22">
+        <f>Tableau1[[#This Row],[Heures effectuées]]-Tableau1[[#This Row],[Heures prévues]]</f>
+        <v>6.5</v>
+      </c>
+      <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="I8">
-        <f>18.5+5</f>
-        <v>23.5</v>
+      <c r="J8" s="3">
+        <f>18.5+5+24</f>
+        <v>47.5</v>
+      </c>
+      <c r="K8" s="4">
+        <f>1.5</f>
+        <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="9">
         <f>(47)+31</f>
         <v>78</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="9">
         <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="E9">
+        <v>39</v>
+      </c>
+      <c r="E9" s="22">
+        <f>Tableau1[[#This Row],[Heures effectuées]]-Tableau1[[#This Row],[Heures prévues]]</f>
+        <v>-39</v>
+      </c>
+      <c r="F9" s="3">
         <f>5+ 13+10</f>
         <v>28</v>
       </c>
-      <c r="F9">
+      <c r="G9" s="3">
         <v>8</v>
       </c>
-      <c r="G9">
+      <c r="H9" s="3">
         <f>3</f>
         <v>3</v>
       </c>
-      <c r="H9">
+      <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>24</v>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="9">
         <f>34+37+7</f>
         <v>78</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="9">
         <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="E10">
+        <v>187</v>
+      </c>
+      <c r="E10" s="22">
+        <f>Tableau1[[#This Row],[Heures effectuées]]-Tableau1[[#This Row],[Heures prévues]]</f>
+        <v>109</v>
+      </c>
+      <c r="F10" s="3">
         <f>4+2+2</f>
         <v>8</v>
       </c>
-      <c r="F10">
+      <c r="G10" s="3">
         <f>0.5+36.5+1</f>
         <v>38</v>
       </c>
-      <c r="G10">
+      <c r="H10" s="3">
         <f>5+1+12+10+12+3+7</f>
         <v>50</v>
       </c>
-      <c r="H10">
+      <c r="I10" s="3">
         <f>9+13+10</f>
         <v>32</v>
       </c>
-      <c r="I10">
+      <c r="J10" s="3">
         <v>0</v>
       </c>
+      <c r="K10" s="4">
+        <f>4+24+26+5</f>
+        <v>59</v>
+      </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="9">
         <v>41.5</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>61.5</v>
-      </c>
-      <c r="E11">
+        <v>66</v>
+      </c>
+      <c r="E11" s="22">
+        <f>Tableau1[[#This Row],[Heures effectuées]]-Tableau1[[#This Row],[Heures prévues]]</f>
+        <v>24.5</v>
+      </c>
+      <c r="F11" s="3">
         <v>10</v>
       </c>
-      <c r="F11">
+      <c r="G11" s="3">
         <v>5.5</v>
       </c>
-      <c r="G11">
+      <c r="H11" s="3">
         <f>3+6</f>
         <v>9</v>
       </c>
-      <c r="H11">
+      <c r="I11" s="3">
         <f>16</f>
         <v>16</v>
       </c>
-      <c r="I11">
+      <c r="J11" s="3">
         <f>21</f>
         <v>21</v>
       </c>
+      <c r="K11" s="4">
+        <f>4.5</f>
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="9">
         <f>13+36+5.5</f>
         <v>54.5</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="9">
         <f t="shared" si="0"/>
         <v>14.25</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="22">
+        <f>Tableau1[[#This Row],[Heures effectuées]]-Tableau1[[#This Row],[Heures prévues]]</f>
+        <v>-40.25</v>
+      </c>
+      <c r="F12" s="3">
         <v>7</v>
       </c>
-      <c r="F12">
+      <c r="G12" s="3">
         <f>0.5+4.5</f>
         <v>5</v>
       </c>
-      <c r="G12">
+      <c r="H12" s="3">
         <f>2</f>
         <v>2</v>
       </c>
-      <c r="H12">
+      <c r="I12" s="3">
         <v>0.25</v>
       </c>
-      <c r="I12">
+      <c r="J12" s="3">
         <v>0</v>
       </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="14">
         <f>36+33+9</f>
         <v>78</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="7">
+        <f>Tableau1[[#This Row],[Heures effectuées]]-Tableau1[[#This Row],[Heures prévues]]</f>
+        <v>-78</v>
+      </c>
+      <c r="F13" s="5">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="G13" s="5">
         <v>0</v>
       </c>
-      <c r="G13">
+      <c r="H13" s="5">
         <v>0</v>
       </c>
-      <c r="H13">
+      <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="J13" s="5">
         <v>0</v>
       </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <f>SUM(C4:C13)</f>
         <v>537</v>
       </c>
+      <c r="D15">
+        <f>SUM(E15:J15)</f>
+        <v>647.5</v>
+      </c>
       <c r="E15">
-        <f>SUM(E4:E13)</f>
+        <f>SUM(F4:F13)</f>
         <v>89</v>
       </c>
       <c r="F15">
-        <f>SUM(F4:F13)</f>
+        <f>SUM(G4:G13)</f>
         <v>96.5</v>
       </c>
       <c r="G15">
-        <f>SUM(G4:G13)</f>
+        <f>SUM(H4:H13)</f>
         <v>112.5</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:I15" si="1">SUM(H4:H13)</f>
+        <f t="shared" ref="H15:I15" si="1">SUM(I4:I13)</f>
         <v>89.5</v>
       </c>
       <c r="I15">
@@ -801,11 +5249,14 @@
         <v>110</v>
       </c>
       <c r="J15">
-        <f>SUM(J4:J13)</f>
-        <v>0</v>
+        <f>SUM(K4:K13)</f>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>